--- a/PythonToExcel.xlsx
+++ b/PythonToExcel.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <b val="1"/>
       <sz val="24"/>
     </font>
